--- a/DS18B20与i_MX_RT系列开发板引脚连接说明.xlsx
+++ b/DS18B20与i_MX_RT系列开发板引脚连接说明.xlsx
@@ -506,7 +506,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
